--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12930" tabRatio="716"/>
+    <workbookView windowWidth="18645" windowHeight="8700" tabRatio="716"/>
   </bookViews>
   <sheets>
     <sheet name="Course" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="118">
   <si>
     <t>Course Name</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Tut Rooms</t>
+  </si>
+  <si>
+    <t>Prereq</t>
   </si>
   <si>
     <t>Course 1</t>
@@ -373,9 +376,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -395,21 +398,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -418,16 +406,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,15 +444,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,13 +505,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -485,41 +512,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,8 +527,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,187 +551,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,17 +769,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,26 +793,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -831,11 +808,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,151 +848,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1357,10 +1360,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7:W11"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1374,7 +1377,7 @@
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1450,16 +1453,19 @@
       <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1468,69 +1474,72 @@
         <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V2">
         <v>3</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1539,69 +1548,69 @@
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1610,69 +1619,69 @@
         <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V4">
         <v>4</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1681,69 +1690,69 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V5">
         <v>2</v>
       </c>
       <c r="W5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1752,69 +1761,69 @@
         <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V6">
         <v>1</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1823,69 +1832,69 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" t="s">
         <v>60</v>
       </c>
-      <c r="O7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>59</v>
-      </c>
       <c r="R7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V7">
         <v>3</v>
       </c>
       <c r="W7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1894,69 +1903,69 @@
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1965,69 +1974,69 @@
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
         <v>68</v>
       </c>
-      <c r="K9" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" t="s">
-        <v>67</v>
-      </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V9">
         <v>3</v>
       </c>
       <c r="W9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -2036,69 +2045,69 @@
         <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V10">
         <v>3</v>
       </c>
       <c r="W10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2107,58 +2116,58 @@
         <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2185,13 +2194,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -2199,112 +2208,112 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9">
         <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10">
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11">
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18645" windowHeight="8700" tabRatio="716"/>
+    <workbookView windowHeight="20250" tabRatio="716"/>
   </bookViews>
   <sheets>
     <sheet name="Course" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="119">
   <si>
     <t>Course Name</t>
   </si>
@@ -92,7 +92,7 @@
     <t>Tut Rooms</t>
   </si>
   <si>
-    <t>Prereq</t>
+    <t>Faculty</t>
   </si>
   <si>
     <t>Course 1</t>
@@ -131,46 +131,69 @@
     <t>[3, 5, 4]</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Course 2</t>
+    </r>
+  </si>
+  <si>
+    <t>Lab 1</t>
+  </si>
+  <si>
+    <t>Course 2</t>
+  </si>
+  <si>
+    <t>[5, 2, 4]</t>
+  </si>
+  <si>
+    <t>[4, 1]</t>
+  </si>
+  <si>
+    <t>[5, 1, 2, 3]</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5]</t>
+  </si>
+  <si>
+    <t>[1, 3, 2, 5]</t>
+  </si>
+  <si>
+    <t>[1, 2, 5, 3]</t>
+  </si>
+  <si>
+    <t>[1, 2, 5, 3, 4]</t>
+  </si>
+  <si>
+    <t>[4, 3, 1, 5, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 4]</t>
+  </si>
+  <si>
+    <t>[3, 1, 4, 5]</t>
+  </si>
+  <si>
+    <t>[2, 1, 4]</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Lab 1</t>
-  </si>
-  <si>
-    <t>Course 2</t>
-  </si>
-  <si>
-    <t>[5, 2, 4]</t>
-  </si>
-  <si>
-    <t>[4, 1]</t>
-  </si>
-  <si>
-    <t>[5, 1, 2, 3]</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5]</t>
-  </si>
-  <si>
-    <t>[1, 3, 2, 5]</t>
-  </si>
-  <si>
-    <t>[1, 2, 5, 3]</t>
-  </si>
-  <si>
-    <t>[1, 2, 5, 3, 4]</t>
-  </si>
-  <si>
-    <t>[4, 3, 1, 5, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 4]</t>
-  </si>
-  <si>
-    <t>[3, 1, 4, 5]</t>
-  </si>
-  <si>
-    <t>[2, 1, 4]</t>
   </si>
   <si>
     <t>Lab 2</t>
@@ -376,10 +399,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -398,39 +421,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,16 +452,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,16 +520,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,7 +529,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,17 +542,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,16 +557,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,67 +580,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,13 +730,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,91 +754,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,6 +792,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -794,6 +832,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -808,17 +861,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,179 +880,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1014,6 +1037,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1362,8 +1386,8 @@
   <sheetPr/>
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1515,7 +1539,7 @@
       <c r="S2" t="s">
         <v>37</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="U2" t="s">
@@ -1528,10 +1552,10 @@
         <v>39</v>
       </c>
       <c r="Z2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1590,7 +1614,7 @@
         <v>51</v>
       </c>
       <c r="T3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -1599,12 +1623,15 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1625,43 +1652,43 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N4" t="s">
         <v>34</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -1670,12 +1697,15 @@
         <v>4</v>
       </c>
       <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1696,43 +1726,43 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
         <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s">
         <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s">
         <v>47</v>
       </c>
       <c r="Q5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R5" t="s">
         <v>34</v>
       </c>
       <c r="S5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
@@ -1741,12 +1771,15 @@
         <v>2</v>
       </c>
       <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1767,43 +1800,43 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
         <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P6" t="s">
         <v>27</v>
       </c>
       <c r="Q6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s">
         <v>27</v>
       </c>
       <c r="T6" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
@@ -1812,12 +1845,15 @@
         <v>1</v>
       </c>
       <c r="W6" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1838,43 +1874,43 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
         <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L7" t="s">
         <v>27</v>
       </c>
       <c r="M7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" t="s">
         <v>61</v>
       </c>
-      <c r="O7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>60</v>
-      </c>
       <c r="R7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -1883,12 +1919,15 @@
         <v>3</v>
       </c>
       <c r="W7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1909,43 +1948,43 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O8" t="s">
         <v>49</v>
       </c>
       <c r="P8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S8" t="s">
         <v>34</v>
       </c>
       <c r="T8" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
@@ -1954,12 +1993,15 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1980,43 +2022,43 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I9" t="s">
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s">
         <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q9" t="s">
         <v>27</v>
       </c>
       <c r="R9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T9" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -2025,12 +2067,15 @@
         <v>3</v>
       </c>
       <c r="W9" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -2054,16 +2099,16 @@
         <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M10" t="s">
         <v>27</v>
@@ -2072,10 +2117,10 @@
         <v>27</v>
       </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q10" t="s">
         <v>34</v>
@@ -2084,10 +2129,10 @@
         <v>34</v>
       </c>
       <c r="S10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T10" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -2096,12 +2141,15 @@
         <v>3</v>
       </c>
       <c r="W10" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -2125,13 +2173,13 @@
         <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
         <v>28</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" t="s">
         <v>27</v>
@@ -2140,25 +2188,25 @@
         <v>27</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q11" t="s">
         <v>27</v>
       </c>
       <c r="R11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T11" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -2167,7 +2215,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2194,13 +2245,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -2208,57 +2259,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2269,51 +2320,51 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9">
         <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10">
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B11">
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
